--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,71 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400"/>
+    <workbookView activeTab="51" firstSheet="49" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
-    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
+    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -358,9 +363,6 @@
     <t>TestAprilReports</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll RTI Recognition Test Report 201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
-  </si>
-  <si>
     <t>ProcessFinalPayrollForMay</t>
   </si>
   <si>
@@ -578,14 +580,17 @@
   </si>
   <si>
     <t>Monthly_RTIPayroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,77 +643,80 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,10 +727,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -757,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,9 +798,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,6 +850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -880,7 +922,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -889,13 +931,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -905,7 +947,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -914,7 +956,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -923,7 +965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -933,12 +975,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -969,7 +1011,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -988,7 +1030,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1000,22 +1042,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1043,9 +1085,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>89</v>
@@ -1057,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1071,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1099,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1113,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1127,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1141,9 +1183,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>89</v>
@@ -1155,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1169,9 +1211,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>89</v>
@@ -1183,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1197,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1211,9 +1253,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>89</v>
@@ -1225,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1253,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1267,9 +1309,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>89</v>
@@ -1281,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1323,9 +1365,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>89</v>
@@ -1337,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1365,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1379,9 +1421,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>89</v>
@@ -1393,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1407,9 +1449,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>89</v>
@@ -1421,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1435,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1449,9 +1491,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>89</v>
@@ -1463,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1477,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1491,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1505,9 +1547,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>89</v>
@@ -1519,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1533,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1547,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1561,9 +1603,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>89</v>
@@ -1575,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1603,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1617,9 +1659,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -1631,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1659,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1673,9 +1715,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>89</v>
@@ -1687,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1701,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1715,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1729,9 +1771,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>89</v>
@@ -1743,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1758,36 +1800,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1822,13 +1864,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1840,7 +1882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -1848,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1863,7 +1905,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -1875,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>70</v>
@@ -1889,42 +1931,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1936,12 +1978,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -1956,29 +1998,29 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2031,36 +2073,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2112,7 +2154,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2127,7 +2169,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -2144,32 +2186,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2213,7 +2255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2221,7 +2263,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2236,7 +2278,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>71</v>
@@ -2253,39 +2295,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2320,13 +2362,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2338,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -2346,7 +2388,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2361,10 +2403,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2376,10 +2418,10 @@
         <v>73</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
@@ -2387,31 +2429,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2464,35 +2506,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2536,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -2544,7 +2586,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2559,7 +2601,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>72</v>
@@ -2575,32 +2617,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2644,7 +2686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2652,7 +2694,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2667,10 +2709,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2684,39 +2726,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2751,13 +2793,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2769,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -2777,7 +2819,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2792,10 +2834,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2807,7 +2849,7 @@
         <v>76</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>77</v>
@@ -2817,38 +2859,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2860,12 +2902,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -2880,31 +2922,31 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2957,35 +2999,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3037,7 +3079,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3052,10 +3094,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3068,28 +3110,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3133,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3141,7 +3183,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3156,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>73</v>
@@ -3173,39 +3215,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3240,13 +3282,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3258,7 +3300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3266,7 +3308,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -3281,10 +3323,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3293,42 +3335,42 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3357,7 +3399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3381,37 +3423,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3455,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3463,7 +3505,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3478,7 +3520,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>74</v>
@@ -3494,27 +3536,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3558,7 +3600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3566,7 +3608,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3581,7 +3623,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>75</v>
@@ -3598,36 +3640,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3662,13 +3704,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3680,7 +3722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3688,7 +3730,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -3703,10 +3745,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3715,43 +3757,43 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3763,12 +3805,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>4</v>
@@ -3777,30 +3819,30 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3829,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3853,27 +3895,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3902,7 +3944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3926,38 +3968,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.21875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4001,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4009,7 +4051,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4024,10 +4066,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4040,27 +4082,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4104,7 +4146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4112,7 +4154,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4127,10 +4169,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4144,37 +4186,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4209,13 +4251,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4227,7 +4269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4235,7 +4277,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -4250,7 +4292,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>76</v>
@@ -4262,42 +4304,42 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4326,7 +4368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4350,35 +4392,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4422,7 +4464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4430,7 +4472,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4445,7 +4487,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>77</v>
@@ -4461,27 +4503,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4525,7 +4567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4533,7 +4575,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4548,10 +4590,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4565,37 +4607,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4630,13 +4672,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4648,7 +4690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4656,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -4671,10 +4713,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -4683,43 +4725,43 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>138</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4748,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4772,35 +4814,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4852,7 +4894,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4867,7 +4909,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>78</v>
@@ -4883,30 +4925,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4950,7 +4992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4958,7 +5000,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -4973,10 +5015,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4990,37 +5032,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5064,7 +5106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5072,7 +5114,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -5087,7 +5129,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>66</v>
@@ -5104,38 +5146,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5170,13 +5212,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5188,7 +5230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5196,7 +5238,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -5211,10 +5253,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -5223,42 +5265,42 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5311,35 +5353,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5383,7 +5425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5391,13 +5433,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5406,10 +5448,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5422,27 +5464,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5486,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5494,13 +5536,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5509,10 +5551,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5526,37 +5568,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5591,13 +5633,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5609,7 +5651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5617,13 +5659,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -5632,10 +5674,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -5644,42 +5686,42 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>144</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5716,7 +5758,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -5732,35 +5774,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5804,7 +5846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5812,13 +5854,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5827,10 +5869,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5843,31 +5885,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5911,7 +5953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5919,13 +5961,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5934,10 +5976,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5951,36 +5993,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6015,13 +6057,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6033,7 +6075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -6041,13 +6083,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -6056,10 +6098,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6068,43 +6110,43 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6133,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6141,7 +6183,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -6157,35 +6199,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6229,7 +6271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6237,7 +6279,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -6252,7 +6294,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -6269,37 +6311,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6343,7 +6384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -6351,13 +6392,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -6366,10 +6407,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6383,37 +6424,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6457,7 +6498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6465,13 +6506,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -6480,10 +6521,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6497,37 +6538,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6562,13 +6603,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6580,7 +6621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -6588,13 +6629,13 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -6603,10 +6644,10 @@
         <v>95</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6615,13 +6656,13 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
@@ -6629,40 +6670,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6697,13 +6738,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>2</v>
@@ -6715,7 +6756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
@@ -6723,7 +6764,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -6738,7 +6779,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>94</v>
@@ -6750,7 +6791,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>66</v>
@@ -6764,31 +6805,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6817,7 +6858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6841,35 +6882,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6913,7 +6954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6921,7 +6962,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -6936,7 +6977,7 @@
         <v>95</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -6953,37 +6994,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7027,7 +7068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -7035,7 +7076,7 @@
         <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -7050,10 +7091,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -7067,8 +7108,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="51" firstSheet="49" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
-    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
+    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -588,8 +583,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,74 +637,74 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -727,10 +721,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -765,7 +759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -798,26 +792,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,23 +827,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,7 +882,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -931,13 +891,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -947,7 +907,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -956,7 +916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -965,7 +925,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -975,12 +935,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1011,7 +971,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1030,7 +990,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1042,22 +1002,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -1099,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1113,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1141,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1155,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1169,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1197,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1211,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -1225,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1239,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1253,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1267,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1295,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1309,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1323,7 +1283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1351,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1365,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1379,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1407,7 +1367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1421,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -1435,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1449,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -1463,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1477,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1491,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -1505,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1519,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1533,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1547,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -1561,7 +1521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1575,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1589,7 +1549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1603,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -1617,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1631,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1645,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1659,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -1673,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1687,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1701,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1715,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -1729,7 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1743,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1771,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -1785,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1800,36 +1760,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1882,7 +1842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -1931,31 +1891,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -1998,29 +1958,29 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2049,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2073,36 +2033,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2146,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2186,32 +2146,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2255,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2295,39 +2255,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2380,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -2429,31 +2389,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2506,35 +2466,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2578,7 +2538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -2617,32 +2577,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2686,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2726,39 +2686,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +2771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -2859,27 +2819,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2902,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -2922,31 +2882,31 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2975,7 +2935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2999,35 +2959,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3071,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3110,28 +3070,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3175,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3215,39 +3175,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3348,29 +3308,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3423,37 +3383,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3497,7 +3457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3536,27 +3496,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3600,7 +3560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3640,36 +3600,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +3682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3770,25 +3730,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -3819,30 +3779,30 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3871,7 +3831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3895,27 +3855,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3968,38 +3928,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4043,7 +4003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4082,27 +4042,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4146,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4186,37 +4146,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4269,7 +4229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4317,29 +4277,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="51.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4368,7 +4328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4392,35 +4352,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4464,7 +4424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4503,27 +4463,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4567,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4607,37 +4567,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4690,7 +4650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4738,30 +4698,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4790,7 +4750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4814,35 +4774,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4886,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4925,30 +4885,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4992,7 +4952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5032,37 +4992,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5146,38 +5106,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5230,7 +5190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5278,29 +5238,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5329,7 +5289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5353,35 +5313,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5425,7 +5385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5464,27 +5424,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5528,7 +5488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5568,37 +5528,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5651,7 +5611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5699,29 +5659,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5750,7 +5710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5774,35 +5734,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5846,7 +5806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5885,31 +5845,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5953,7 +5913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5993,36 +5953,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6075,7 +6035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -6123,30 +6083,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6175,7 +6135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6199,35 +6159,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6271,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6311,36 +6271,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6384,7 +6344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -6424,37 +6384,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6498,7 +6458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6538,172 +6498,172 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6756,7 +6716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
@@ -6805,31 +6765,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6858,7 +6818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6882,35 +6842,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6954,7 +6914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6994,37 +6954,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7068,7 +7028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -7108,8 +7068,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -4,68 +4,68 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400"/>
+    <workbookView windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
-    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
+    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -584,6 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -637,74 +638,74 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -721,10 +722,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -882,7 +883,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -891,13 +892,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -907,7 +908,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -916,7 +917,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -925,7 +926,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -935,12 +936,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -971,7 +972,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -990,7 +991,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1002,7 +1003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1011,13 +1012,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1760,12 +1761,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1774,22 +1775,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -1891,15 +1892,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1908,14 +1909,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -1958,12 +1959,12 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1972,15 +1973,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2033,12 +2034,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2047,22 +2048,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2146,14 +2147,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2162,16 +2163,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2255,14 +2256,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2271,23 +2272,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>91</v>
       </c>
@@ -2389,14 +2390,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2405,15 +2406,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2466,12 +2467,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2480,21 +2481,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -2577,12 +2578,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2591,18 +2592,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -2686,14 +2687,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2702,23 +2703,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.88671875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2771,7 +2772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -2819,12 +2820,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2833,13 +2834,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -2882,13 +2883,13 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2897,16 +2898,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -2959,12 +2960,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2973,21 +2974,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3070,12 +3071,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3084,14 +3085,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3175,14 +3176,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3191,23 +3192,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.44140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3308,12 +3309,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,15 +3323,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3383,12 +3384,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3397,23 +3398,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.400000000000006" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -3496,12 +3497,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3510,13 +3511,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -3600,14 +3601,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3616,20 +3617,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -3730,12 +3731,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3744,11 +3745,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
@@ -3779,13 +3780,13 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3794,15 +3795,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3855,12 +3856,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3869,13 +3870,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -3928,13 +3929,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3943,23 +3944,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4042,12 +4043,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4056,13 +4057,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4146,14 +4147,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4162,21 +4163,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4229,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4277,12 +4278,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4291,15 +4292,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="51.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4352,12 +4353,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4366,21 +4367,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4463,12 +4464,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4477,13 +4478,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4567,14 +4568,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4583,21 +4584,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -4698,12 +4699,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4712,16 +4713,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.950000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -4774,12 +4775,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4788,21 +4789,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -4885,12 +4886,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -4899,16 +4900,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -4992,14 +4993,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5008,21 +5009,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5106,15 +5107,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5123,21 +5124,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5238,12 +5239,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5252,15 +5253,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5313,12 +5314,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5327,21 +5328,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5424,12 +5425,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5438,13 +5439,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5528,14 +5529,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5544,21 +5545,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -5659,12 +5660,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5673,15 +5674,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5710,7 +5711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -5734,12 +5735,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5748,21 +5749,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -5845,12 +5846,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -5859,17 +5860,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5953,14 +5954,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5969,20 +5970,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -6083,12 +6084,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6097,16 +6098,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6135,7 +6136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.950000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6159,12 +6160,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6173,21 +6174,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6271,14 +6272,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6287,20 +6288,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="33.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>91</v>
       </c>
@@ -6384,14 +6385,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6400,21 +6401,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6498,15 +6499,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6515,20 +6516,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>91</v>
       </c>
@@ -6630,15 +6631,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6647,23 +6648,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>91</v>
       </c>
@@ -6765,15 +6766,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6782,14 +6783,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>92</v>
       </c>
@@ -6842,12 +6843,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -6856,21 +6857,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -6954,14 +6955,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6970,21 +6971,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -7068,8 +7069,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,71 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
-    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
+    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -340,9 +345,6 @@
     <t>UpdteTaxCodeAndAnualSalaryM1</t>
   </si>
   <si>
-    <t>DONT TOUCH AUTO EMPLR HMRC RECNTION</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101</t>
   </si>
   <si>
@@ -574,17 +576,19 @@
     <t>50</t>
   </si>
   <si>
-    <t>Monthly_RTIPayroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
+  </si>
+  <si>
+    <t>HMRCS1_Payroll</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO HMRCS1 EMPLOYER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,74 +642,75 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,10 +727,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -760,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,9 +798,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,6 +850,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +922,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -892,13 +931,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -908,7 +947,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -917,7 +956,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -926,7 +965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -936,12 +975,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -972,7 +1011,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -991,7 +1030,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1003,22 +1042,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1046,9 +1085,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>89</v>
@@ -1060,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -1074,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1088,9 +1127,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>89</v>
@@ -1102,9 +1141,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>89</v>
@@ -1116,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1130,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1144,9 +1183,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>89</v>
@@ -1158,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1172,9 +1211,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>89</v>
@@ -1186,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1200,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1214,9 +1253,9 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>89</v>
@@ -1228,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1270,9 +1309,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>89</v>
@@ -1284,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1298,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1312,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1326,9 +1365,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>89</v>
@@ -1340,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1382,9 +1421,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>89</v>
@@ -1396,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1410,9 +1449,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>89</v>
@@ -1424,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -1438,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1452,9 +1491,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>89</v>
@@ -1466,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1480,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1494,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1508,9 +1547,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>89</v>
@@ -1522,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1536,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +1589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1564,9 +1603,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>89</v>
@@ -1578,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1592,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -1606,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1620,9 +1659,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>89</v>
@@ -1634,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -1648,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1676,9 +1715,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>89</v>
@@ -1690,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1704,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1718,7 +1757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1732,9 +1771,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>89</v>
@@ -1746,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1761,36 +1800,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1825,13 +1864,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -1843,12 +1882,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -1863,10 +1902,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>69</v>
@@ -1878,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>70</v>
@@ -1891,43 +1930,40 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1939,12 +1975,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -1959,29 +1995,29 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2010,9 +2046,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2034,36 +2070,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.88671875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2107,12 +2143,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2130,7 +2166,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>70</v>
@@ -2146,33 +2182,30 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2216,12 +2249,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2239,7 +2272,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>71</v>
@@ -2255,40 +2288,37 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2323,13 +2353,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2341,12 +2371,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2361,13 +2391,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2379,42 +2409,39 @@
         <v>73</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2443,9 +2470,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2467,35 +2494,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2539,12 +2566,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2562,7 +2589,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>72</v>
@@ -2578,32 +2605,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2647,12 +2677,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2670,10 +2700,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2687,39 +2717,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2754,13 +2784,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -2772,12 +2802,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -2792,13 +2822,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2810,7 +2840,7 @@
         <v>76</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>77</v>
@@ -2820,38 +2850,41 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2863,12 +2896,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>17</v>
@@ -2883,31 +2916,31 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2936,9 +2969,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2960,35 +2993,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3032,12 +3065,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3055,10 +3088,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3071,28 +3104,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3136,12 +3172,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3159,7 +3195,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>73</v>
@@ -3176,39 +3212,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3243,13 +3279,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3261,12 +3297,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3281,13 +3317,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3296,42 +3332,45 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>120</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3360,9 +3399,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3384,37 +3423,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5546875" collapsed="true"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3458,12 +3497,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.400000000000006" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3481,7 +3520,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>74</v>
@@ -3497,27 +3536,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3561,12 +3603,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3584,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>75</v>
@@ -3601,36 +3643,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.44140625" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3665,13 +3707,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -3683,12 +3725,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -3703,13 +3745,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3718,43 +3760,46 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3766,12 +3811,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>4</v>
@@ -3780,30 +3825,30 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3832,9 +3877,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3856,27 +3901,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3905,9 +3950,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3929,38 +3974,38 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.33203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.33203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.6640625" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4004,12 +4049,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4027,10 +4072,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4043,27 +4088,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4107,12 +4155,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4130,10 +4178,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4147,37 +4195,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4212,13 +4260,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4230,12 +4278,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4250,10 +4298,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>76</v>
@@ -4265,42 +4313,45 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4329,9 +4380,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="37.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -4353,35 +4404,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4425,12 +4476,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4448,7 +4499,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>77</v>
@@ -4464,27 +4515,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4528,12 +4582,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4551,10 +4605,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4568,37 +4622,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4633,13 +4687,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -4651,12 +4705,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4671,13 +4725,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -4686,43 +4740,46 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4751,9 +4808,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.950000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -4775,35 +4832,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4847,12 +4904,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4870,7 +4927,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>78</v>
@@ -4886,30 +4943,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4953,12 +5013,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -4976,10 +5036,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4993,37 +5053,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5067,12 +5127,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5087,10 +5147,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>66</v>
@@ -5107,38 +5167,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5173,13 +5233,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5191,12 +5251,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5211,13 +5271,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -5226,42 +5286,45 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>140</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5290,9 +5353,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.200000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -5314,35 +5377,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5386,12 +5449,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5400,7 +5463,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5409,10 +5472,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5425,27 +5488,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5489,12 +5555,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5503,7 +5569,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5512,10 +5578,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5529,37 +5595,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5594,13 +5660,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -5612,12 +5678,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5626,19 +5692,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -5647,42 +5713,45 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5711,15 +5780,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -5735,35 +5804,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5807,12 +5876,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5821,7 +5890,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5830,10 +5899,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5846,31 +5915,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.6640625" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5914,12 +5986,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -5928,7 +6000,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5937,10 +6009,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5954,36 +6026,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6018,13 +6090,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6036,12 +6108,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6050,19 +6122,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6071,43 +6143,46 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="13" t="s">
-        <v>146</v>
-      </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6136,15 +6211,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.950000000000003" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -6160,35 +6235,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6232,12 +6307,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6252,10 +6327,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>67</v>
@@ -6271,37 +6346,34 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6345,12 +6417,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6359,19 +6431,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6385,37 +6457,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6459,12 +6532,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6473,19 +6546,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6499,37 +6572,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId2" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.88671875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6564,13 +6637,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
@@ -6582,12 +6655,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6596,19 +6669,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6617,13 +6690,13 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
@@ -6631,40 +6704,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6699,13 +6773,13 @@
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>2</v>
@@ -6717,12 +6791,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6737,13 +6811,13 @@
         <v>64</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6752,7 +6826,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>66</v>
@@ -6765,32 +6839,29 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6819,9 +6890,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -6843,35 +6914,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6915,12 +6986,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -6935,10 +7006,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>68</v>
@@ -6954,38 +7025,35 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7029,12 +7097,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>169</v>
@@ -7052,10 +7120,10 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -7068,9 +7136,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
-    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
+    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -589,6 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -642,75 +643,75 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -727,10 +728,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -765,7 +766,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,7 +923,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -931,13 +932,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -947,7 +948,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -956,7 +957,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -965,7 +966,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -975,12 +976,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1011,7 +1012,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1030,7 +1031,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1042,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1051,10 +1052,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,12 +1801,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1814,22 +1815,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>170</v>
       </c>
@@ -1930,13 +1931,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1945,11 +1946,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
@@ -1995,12 +1996,12 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2009,12 +2010,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2046,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -2070,12 +2071,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2084,19 +2085,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2143,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2182,12 +2183,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2196,13 +2197,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2249,7 +2250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2288,12 +2289,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2302,23 +2303,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>170</v>
       </c>
@@ -2419,12 +2420,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2433,12 +2434,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2470,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -2494,12 +2495,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2508,18 +2509,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2566,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -2606,14 +2607,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,15 +2623,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2677,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -2717,14 +2718,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2733,23 +2734,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -2851,14 +2852,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,10 +2868,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2896,7 +2897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
@@ -2916,13 +2917,13 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2931,13 +2932,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2969,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -2993,12 +2994,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3007,18 +3008,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3065,7 +3066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3105,14 +3106,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3121,11 +3122,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3172,7 +3173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3212,14 +3213,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,23 +3229,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3346,14 +3347,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,12 +3363,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3399,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -3423,12 +3424,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3437,20 +3438,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3497,7 +3498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3537,14 +3538,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3553,10 +3554,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3603,7 +3604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3643,14 +3644,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3659,20 +3660,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -3774,14 +3775,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,8 +3791,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,7 +3812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
@@ -3825,13 +3826,13 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3840,12 +3841,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3877,7 +3878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -3901,12 +3902,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,10 +3916,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3950,7 +3951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -3974,13 +3975,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3989,20 +3990,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4049,7 +4050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4089,14 +4090,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4105,10 +4106,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4155,7 +4156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4195,14 +4196,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4211,21 +4212,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4278,7 +4279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4327,14 +4328,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4343,12 +4344,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,7 +4381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -4404,12 +4405,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4418,18 +4419,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4476,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4516,14 +4517,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,10 +4533,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4582,7 +4583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4622,14 +4623,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4638,21 +4639,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4754,14 +4755,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4770,13 +4771,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4808,7 +4809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -4832,12 +4833,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4846,18 +4847,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4904,7 +4905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -4944,14 +4945,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4960,13 +4961,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5013,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5053,14 +5054,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5069,18 +5070,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5127,7 +5128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5167,15 +5168,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5184,21 +5185,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5300,14 +5301,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5316,12 +5317,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5353,7 +5354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -5377,12 +5378,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5391,18 +5392,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5449,7 +5450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5489,14 +5490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5505,10 +5506,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5555,7 +5556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5595,14 +5596,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5611,21 +5612,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5727,14 +5728,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5743,12 +5744,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5780,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -5804,12 +5805,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5818,18 +5819,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5876,7 +5877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -5916,14 +5917,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5932,14 +5933,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5986,7 +5987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -6026,14 +6027,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6042,20 +6043,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -6157,14 +6158,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6173,13 +6174,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6211,7 +6212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -6235,12 +6236,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6249,18 +6250,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6307,7 +6308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -6346,12 +6347,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6360,17 +6361,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6417,7 +6418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -6457,15 +6458,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6474,18 +6475,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6532,7 +6533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -6572,15 +6573,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6589,20 +6590,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>170</v>
       </c>
@@ -6704,16 +6705,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6722,23 +6723,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>170</v>
       </c>
@@ -6839,13 +6840,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6854,11 +6855,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6890,7 +6891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>91</v>
       </c>
@@ -6914,12 +6915,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6928,18 +6929,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6986,7 +6987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -7025,12 +7026,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -7039,18 +7040,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7097,7 +7098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -7136,6 +7137,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="14" firstSheet="12" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
       <c r="G2" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -2297,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2394,7 @@
       <c r="G2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -5064,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6244,8 +6244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6717,8 +6717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7034,7 +7034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="171">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="49" activeTab="51"/>
+    <workbookView activeTab="11" firstSheet="10" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
-    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
+    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="179">
   <si>
     <t>TC</t>
   </si>
@@ -606,12 +606,20 @@
   <si>
     <t xml:space="preserve">
 DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101
+</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -665,74 +673,74 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -749,10 +757,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -787,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,7 +952,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -953,13 +961,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -969,7 +977,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -978,7 +986,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -987,7 +995,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -997,12 +1005,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1033,7 +1041,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1052,7 +1060,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1064,19 +1072,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,12 +1830,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,22 +1844,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>173</v>
       </c>
@@ -1952,26 +1960,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,9 +2005,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>156</v>
@@ -2017,12 +2025,436 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="72.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>33962.879999999997</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2031,12 +2463,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
@@ -2082,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>33962.879999999997</v>
+        <v>33963</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -2092,12 +2524,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2106,19 +2538,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2165,12 +2596,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>171</v>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -2179,7 +2610,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -2191,7 +2622,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2204,12 +2635,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2218,13 +2649,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2271,9 +2704,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>169</v>
@@ -2285,7 +2718,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -2297,7 +2730,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2310,12 +2743,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2324,23 +2757,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2393,8 +2826,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2407,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -2419,7 +2852,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2428,25 +2861,89 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2455,12 +2952,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2492,9 +2990,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2506,7 +3004,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>33963</v>
+        <v>33963.120000000003</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -2516,12 +3014,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2530,18 +3028,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2588,7 +3086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
@@ -2602,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -2614,7 +3112,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2627,12 +3125,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2641,15 +3139,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2696,12 +3190,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -2710,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -2722,7 +3216,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -2735,12 +3229,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2749,23 +3243,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2818,7 +3312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
@@ -2832,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -2844,7 +3338,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -2853,89 +3347,25 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,13 +3374,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2982,9 +3411,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2996,7 +3425,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>33963.120000000003</v>
+        <v>150458.88</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -3006,12 +3435,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3020,18 +3449,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3078,7 +3509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
@@ -3092,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -3104,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3117,12 +3548,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,11 +3562,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3182,12 +3612,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -3196,7 +3626,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -3208,7 +3638,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3221,12 +3651,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,23 +3665,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
@@ -3318,7 +3745,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -3330,7 +3757,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3339,25 +3766,75 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,12 +3843,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3403,9 +3880,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3417,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150458.88</v>
+        <v>150459</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -3427,12 +3904,86 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>470.88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3441,20 +3992,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3501,21 +4052,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -3527,7 +4078,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3540,12 +4091,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3554,10 +4105,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3604,7 +4155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -3618,7 +4169,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -3630,7 +4181,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -3643,12 +4194,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,20 +4208,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3723,7 +4275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
@@ -3737,7 +4289,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -3749,7 +4301,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -3758,75 +4310,25 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3835,12 +4337,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,9 +4374,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3886,7 +4388,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150459</v>
+        <v>150459.12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -3896,12 +4398,892 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>150471</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,10 +5292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3945,8 +5329,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3959,7 +5343,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>470.88</v>
+        <v>150471.12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -3969,13 +5353,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,20 +5367,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4044,21 +5425,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -4070,7 +5451,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4083,12 +5464,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4097,10 +5478,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4147,7 +5528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -4161,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -4173,7 +5554,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4186,12 +5567,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4200,21 +5581,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4267,7 +5648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
@@ -4281,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -4293,7 +5674,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -4302,25 +5683,446 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16800</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4329,12 +6131,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4366,7 +6169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
@@ -4374,13 +6177,13 @@
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150459.12</v>
+        <v>18000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -4390,12 +6193,123 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4404,18 +6318,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4462,12 +6375,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -4475,20 +6388,20 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>85</v>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4501,12 +6414,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,10 +6431,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4565,7 +6489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -4578,20 +6502,20 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>85</v>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4604,12 +6528,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4618,21 +6545,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4685,12 +6611,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -4698,8 +6624,8 @@
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>85</v>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -4711,7 +6637,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -4720,433 +6646,29 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>150471</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5155,52 +6677,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
@@ -5212,22 +6736,22 @@
       <c r="N1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -5236,19 +6760,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -5257,25 +6781,26 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5284,12 +6809,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,7 +6845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
@@ -5335,7 +6859,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150471.12</v>
+        <v>471</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -5345,1528 +6869,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16800</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>18000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>471</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6875,18 +6883,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6933,7 +6941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -6972,12 +6980,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6986,18 +6994,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7044,7 +7052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>173</v>
       </c>
@@ -7083,6 +7091,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="10" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="13" firstSheet="11" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="178">
   <si>
     <t>TC</t>
   </si>
@@ -608,11 +608,7 @@
 DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1</t>
   </si>
   <si>
-    <t xml:space="preserve">DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101
-</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101</t>
+    <t>X Not liable for NI</t>
   </si>
 </sst>
 </file>
@@ -620,7 +616,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +643,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -677,7 +679,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -733,6 +735,7 @@
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
@@ -1975,7 +1978,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
@@ -2007,7 +2010,7 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>156</v>
@@ -2033,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2081,7 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2109,14 +2112,14 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
@@ -2178,9 +2181,9 @@
         <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2213,6 +2216,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2220,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,9 +2288,9 @@
         <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2406,7 +2410,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>170</v>
@@ -2644,7 +2648,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,7 +2951,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,7 +2996,7 @@
     </row>
     <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3023,7 +3027,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3882,7 +3886,7 @@
     </row>
     <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3913,7 +3917,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,7 +3962,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -3967,7 +3971,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>470.88</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -6672,7 +6676,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="178">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="11" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="49" activeTab="50"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
-    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
+    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="176">
   <si>
     <t>TC</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_RTI_TestReports201718\\201718 Payroll RTI Recognition Test result.xlsx</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1</t>
   </si>
   <si>
     <t>HMRCS1_Payroll</t>
@@ -589,10 +586,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1
-</t>
-  </si>
-  <si>
     <t>DONT TOUCH AUTO HMRCS1 EMPLOYER</t>
   </si>
   <si>
@@ -604,18 +597,16 @@
 DONT TOUCH AUTO HMRCS1 EMPLOYER</t>
   </si>
   <si>
-    <t xml:space="preserve">
-DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 1</t>
-  </si>
-  <si>
     <t>X Not liable for NI</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,75 +666,75 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -760,10 +751,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -798,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,7 +841,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,7 +946,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -964,13 +955,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -980,7 +971,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -989,7 +980,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -998,7 +989,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1008,12 +999,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1044,7 +1035,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1063,7 +1054,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1075,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -1084,10 +1075,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1833,36 +1824,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1915,15 +1906,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -1963,13 +1954,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1978,11 +1969,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,9 +1999,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>156</v>
@@ -2028,12 +2019,12 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2042,12 +2033,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="72.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2079,9 +2070,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2103,33 +2094,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2176,15 +2167,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2215,28 +2206,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2283,15 +2274,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2322,12 +2313,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2336,23 +2327,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2405,15 +2396,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2453,12 +2444,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2467,12 +2458,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,9 +2495,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -2528,123 +2519,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2653,15 +2533,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2708,15 +2591,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -2730,6 +2613,114 @@
       <c r="G2" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
@@ -2747,37 +2738,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2830,15 +2821,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -2878,12 +2869,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2892,10 +2883,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,9 +2912,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>156</v>
@@ -2941,28 +2932,28 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,9 +2985,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3018,12 +3009,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3032,18 +3023,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3090,15 +3081,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3129,25 +3120,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3194,15 +3185,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3233,37 +3224,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3316,15 +3307,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -3364,12 +3355,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3378,12 +3369,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3415,9 +3406,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3439,34 +3430,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3513,15 +3504,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3552,24 +3543,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3616,15 +3607,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -3655,34 +3646,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3735,15 +3726,15 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
@@ -3783,12 +3774,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3797,8 +3788,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,9 +3809,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>157</v>
@@ -3832,13 +3823,13 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3847,12 +3838,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3884,9 +3875,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -3908,431 +3899,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4341,12 +3913,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4378,12 +3948,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
@@ -4392,7 +3962,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150459.12</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -4402,32 +3972,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4474,21 +4047,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -4496,11 +4069,11 @@
       <c r="G2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4513,24 +4086,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4577,21 +4150,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -4603,7 +4176,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -4616,35 +4189,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4697,21 +4270,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -4723,7 +4296,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -4732,562 +4305,25 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>150471</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,12 +4332,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5333,9 +4369,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -5347,7 +4383,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>150471.12</v>
+        <v>150459.12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -5357,356 +4393,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -5714,93 +4407,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
-        <v>16800</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5847,21 +4465,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5869,11 +4487,11 @@
       <c r="G2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5886,28 +4504,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5954,21 +4568,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -5980,7 +4594,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -5993,34 +4607,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6073,21 +4688,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -6099,7 +4714,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6108,25 +4723,25 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6135,13 +4750,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6173,21 +4788,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>18000</v>
+        <v>150471</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -6197,32 +4812,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6269,33 +4884,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>171</v>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6308,31 +4923,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6379,33 +4990,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>173</v>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
+      <c r="E2" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6418,35 +5029,32 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6493,21 +5101,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>100</v>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -6515,11 +5123,11 @@
       <c r="G2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6533,36 +5141,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6615,21 +5225,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>100</v>
+      <c r="E2" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
@@ -6641,7 +5251,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6650,161 +5260,25 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6813,11 +5287,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6849,9 +5324,9 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>88</v>
@@ -6863,7 +5338,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="2">
-        <v>471</v>
+        <v>150471.12</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -6873,13 +5348,356 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6887,18 +5705,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16800</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6945,33 +5838,33 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>173</v>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -6984,32 +5877,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7056,21 +5945,21 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>64</v>
@@ -7082,7 +5971,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>27</v>
@@ -7095,6 +5984,1108 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>471</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="49" activeTab="50"/>
+    <workbookView activeTab="50" firstSheet="49" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
-    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
-    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
-    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
-    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
-    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
-    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
-    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
-    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
-    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
-    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
-    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
-    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
-    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
-    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
-    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
-    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
-    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
-    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
-    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
+    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
+    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
+    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
+    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
+    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
+    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
+    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
+    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
+    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
+    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
+    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
+    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="176">
   <si>
     <t>TC</t>
   </si>
@@ -607,6 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,75 +667,75 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,10 +752,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -789,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -946,7 +947,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -955,13 +956,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -971,7 +972,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -980,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -989,7 +990,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -999,12 +1000,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1035,7 +1036,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1054,7 +1055,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1066,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -1075,10 +1076,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1824,12 +1825,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,22 +1839,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>171</v>
       </c>
@@ -1954,13 +1955,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1969,11 +1970,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1999,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2019,12 +2020,12 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2033,12 +2034,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="72.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2070,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2094,12 +2095,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2108,19 +2109,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2167,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2206,13 +2207,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,13 +2222,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2274,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2313,12 +2314,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2327,23 +2328,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>171</v>
       </c>
@@ -2444,12 +2445,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2458,12 +2459,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2495,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -2519,12 +2520,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,18 +2534,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2591,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -2630,12 +2631,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2644,15 +2645,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2699,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -2738,12 +2739,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2752,23 +2753,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -2869,12 +2870,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2883,10 +2884,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2912,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2932,13 +2933,13 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2947,13 +2948,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2985,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3009,12 +3010,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,18 +3024,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3081,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3120,12 +3121,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3134,11 +3135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3185,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -3224,12 +3225,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3238,23 +3239,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -3355,12 +3356,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3369,12 +3370,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3406,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3430,12 +3431,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3444,20 +3445,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3504,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3543,12 +3544,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3557,10 +3558,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3607,7 +3608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -3646,12 +3647,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3660,20 +3661,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -3774,12 +3775,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3788,8 +3789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -3823,13 +3824,13 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3838,12 +3839,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3875,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3899,12 +3900,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3913,10 +3914,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3948,7 +3949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -3972,13 +3973,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3987,20 +3988,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4047,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4086,12 +4087,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,10 +4101,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4150,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -4189,12 +4190,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4203,21 +4204,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -4318,12 +4319,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4332,12 +4333,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,7 +4370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -4393,12 +4394,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4407,18 +4408,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4465,7 +4466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4504,12 +4505,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4518,10 +4519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4568,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -4607,12 +4608,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4621,21 +4622,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -4736,12 +4737,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4750,13 +4751,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4788,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -4812,12 +4813,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4826,18 +4827,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4884,7 +4885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
@@ -4923,12 +4924,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,13 +4938,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4990,7 +4991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5029,12 +5030,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5043,18 +5044,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5101,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5141,15 +5142,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5158,21 +5159,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -5273,12 +5274,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5287,12 +5288,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5324,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -5348,12 +5349,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5362,18 +5363,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5420,7 +5421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -5459,12 +5460,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,10 +5474,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5523,7 +5524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5562,12 +5563,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5576,21 +5577,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -5691,12 +5692,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5705,12 +5706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5742,7 +5743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -5766,12 +5767,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5780,18 +5781,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5838,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -5877,12 +5878,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5891,14 +5892,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5945,7 +5946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5984,12 +5985,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5998,20 +5999,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -6112,12 +6113,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6126,13 +6127,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6164,7 +6165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -6188,12 +6189,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6202,18 +6203,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6260,7 +6261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -6299,12 +6300,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6313,17 +6314,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6370,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -6410,14 +6411,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6426,18 +6427,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6484,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -6524,14 +6525,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6540,20 +6541,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -6655,15 +6656,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6672,23 +6673,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>170</v>
       </c>
@@ -6789,13 +6790,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6804,11 +6805,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6840,7 +6841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -6864,12 +6865,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,18 +6879,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6936,7 +6937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -6975,12 +6976,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6989,18 +6990,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7047,7 +7048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -7086,6 +7087,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition Scenario201718.xlsx
@@ -1,76 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F70B96B-4262-4F98-8396-06D0C266E6A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="50" firstSheet="49" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="49" activeTab="51" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
-    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
-    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
-    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="15"/>
-    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="16"/>
-    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="17"/>
-    <sheet name="TestMayReports" r:id="rId10" sheetId="18"/>
-    <sheet name="ResetNiableInCompn" r:id="rId11" sheetId="61"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId12" sheetId="51"/>
-    <sheet name="ProcessPayrollForJune" r:id="rId13" sheetId="19"/>
-    <sheet name="ProcessFinalPayrollForJune" r:id="rId14" sheetId="50"/>
-    <sheet name="TestJuneReports" r:id="rId15" sheetId="20"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId16" sheetId="21"/>
-    <sheet name="ProcessPayrollForJuly" r:id="rId17" sheetId="22"/>
-    <sheet name="ProcessFinalPayrollForJuly" r:id="rId18" sheetId="52"/>
-    <sheet name="TestJulyReports" r:id="rId19" sheetId="23"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId20" sheetId="24"/>
-    <sheet name="ProcessPayrollForAug" r:id="rId21" sheetId="25"/>
-    <sheet name="ProcessFinalPayrollForAug" r:id="rId22" sheetId="53"/>
-    <sheet name="TestAugReports" r:id="rId23" sheetId="26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId24" sheetId="27"/>
-    <sheet name="ProcessPayrollForSep" r:id="rId25" sheetId="28"/>
-    <sheet name="ProcessFinalPayrollForSep" r:id="rId26" sheetId="54"/>
-    <sheet name="TestSepReports" r:id="rId27" sheetId="29"/>
-    <sheet name="ResetEmployeePayrollId" r:id="rId28" sheetId="62"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId29" sheetId="30"/>
-    <sheet name="ProcessPayrollForOct" r:id="rId30" sheetId="31"/>
-    <sheet name="ProcessFinalPayrollForOct" r:id="rId31" sheetId="55"/>
-    <sheet name="TestOctReports" r:id="rId32" sheetId="32"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId33" sheetId="33"/>
-    <sheet name="ProcessPayrollForNov" r:id="rId34" sheetId="34"/>
-    <sheet name="ProcessFinalPayrollForNov" r:id="rId35" sheetId="56"/>
-    <sheet name="TestNovReports" r:id="rId36" sheetId="35"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId37" sheetId="36"/>
-    <sheet name="ProcessPayrollForDec" r:id="rId38" sheetId="37"/>
-    <sheet name="ProcessFinalPayrollForDec" r:id="rId39" sheetId="57"/>
-    <sheet name="TestDecReports" r:id="rId40" sheetId="38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId41" sheetId="39"/>
-    <sheet name="ProcessPayrollForJan" r:id="rId42" sheetId="40"/>
-    <sheet name="ProcessFinalPayrollForJan" r:id="rId43" sheetId="58"/>
-    <sheet name="TestJanReports" r:id="rId44" sheetId="41"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId45" sheetId="42"/>
-    <sheet name="ProcessPayrollForFeb" r:id="rId46" sheetId="43"/>
-    <sheet name="ProcessFinalPayrollForFeb" r:id="rId47" sheetId="59"/>
-    <sheet name="TestFebReports" r:id="rId48" sheetId="44"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId49" sheetId="45"/>
-    <sheet name="ProcessPayrollForMarch" r:id="rId50" sheetId="46"/>
-    <sheet name="ProcessFinalPayrollForMarch" r:id="rId51" sheetId="60"/>
-    <sheet name="TestMarchReports" r:id="rId52" sheetId="47"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
+    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
+    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="15" r:id="rId7"/>
+    <sheet name="ProcessPayrollForMay" sheetId="16" r:id="rId8"/>
+    <sheet name="ProcessFinalPayrollForMay" sheetId="17" r:id="rId9"/>
+    <sheet name="TestMayReports" sheetId="18" r:id="rId10"/>
+    <sheet name="ResetNiableInCompn" sheetId="61" r:id="rId11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="51" r:id="rId12"/>
+    <sheet name="ProcessPayrollForJune" sheetId="19" r:id="rId13"/>
+    <sheet name="ProcessFinalPayrollForJune" sheetId="50" r:id="rId14"/>
+    <sheet name="TestJuneReports" sheetId="20" r:id="rId15"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="21" r:id="rId16"/>
+    <sheet name="ProcessPayrollForJuly" sheetId="22" r:id="rId17"/>
+    <sheet name="ProcessFinalPayrollForJuly" sheetId="52" r:id="rId18"/>
+    <sheet name="TestJulyReports" sheetId="23" r:id="rId19"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="24" r:id="rId20"/>
+    <sheet name="ProcessPayrollForAug" sheetId="25" r:id="rId21"/>
+    <sheet name="ProcessFinalPayrollForAug" sheetId="53" r:id="rId22"/>
+    <sheet name="TestAugReports" sheetId="26" r:id="rId23"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="27" r:id="rId24"/>
+    <sheet name="ProcessPayrollForSep" sheetId="28" r:id="rId25"/>
+    <sheet name="ProcessFinalPayrollForSep" sheetId="54" r:id="rId26"/>
+    <sheet name="TestSepReports" sheetId="29" r:id="rId27"/>
+    <sheet name="ResetEmployeePayrollId" sheetId="62" r:id="rId28"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="30" r:id="rId29"/>
+    <sheet name="ProcessPayrollForOct" sheetId="31" r:id="rId30"/>
+    <sheet name="ProcessFinalPayrollForOct" sheetId="55" r:id="rId31"/>
+    <sheet name="TestOctReports" sheetId="32" r:id="rId32"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="33" r:id="rId33"/>
+    <sheet name="ProcessPayrollForNov" sheetId="34" r:id="rId34"/>
+    <sheet name="ProcessFinalPayrollForNov" sheetId="56" r:id="rId35"/>
+    <sheet name="TestNovReports" sheetId="35" r:id="rId36"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="36" r:id="rId37"/>
+    <sheet name="ProcessPayrollForDec" sheetId="37" r:id="rId38"/>
+    <sheet name="ProcessFinalPayrollForDec" sheetId="57" r:id="rId39"/>
+    <sheet name="TestDecReports" sheetId="38" r:id="rId40"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="39" r:id="rId41"/>
+    <sheet name="ProcessPayrollForJan" sheetId="40" r:id="rId42"/>
+    <sheet name="ProcessFinalPayrollForJan" sheetId="58" r:id="rId43"/>
+    <sheet name="TestJanReports" sheetId="41" r:id="rId44"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="42" r:id="rId45"/>
+    <sheet name="ProcessPayrollForFeb" sheetId="43" r:id="rId46"/>
+    <sheet name="ProcessFinalPayrollForFeb" sheetId="59" r:id="rId47"/>
+    <sheet name="TestFebReports" sheetId="44" r:id="rId48"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="45" r:id="rId49"/>
+    <sheet name="ProcessPayrollForMarch" sheetId="46" r:id="rId50"/>
+    <sheet name="ProcessFinalPayrollForMarch" sheetId="60" r:id="rId51"/>
+    <sheet name="TestMarchReports" sheetId="47" r:id="rId52"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="176">
   <si>
     <t>TC</t>
   </si>
@@ -606,8 +607,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,75 +667,75 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -752,10 +752,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -790,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +842,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -947,7 +947,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -956,13 +956,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -972,7 +972,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -981,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -990,7 +990,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1000,12 +1000,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1036,7 +1036,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1055,7 +1055,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1067,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -1076,10 +1076,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,12 +1825,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1839,22 +1839,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>171</v>
       </c>
@@ -1955,13 +1955,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1970,11 +1970,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="38" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2020,12 +2020,12 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2034,12 +2034,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="72.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2095,12 +2095,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2109,19 +2109,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2207,13 +2207,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,13 +2222,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2275,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -2314,12 +2314,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2328,23 +2328,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>171</v>
       </c>
@@ -2445,12 +2445,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,12 +2459,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -2520,12 +2520,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,18 +2534,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -2631,12 +2631,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2645,15 +2645,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -2739,12 +2739,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,23 +2753,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -2870,12 +2870,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,10 +2884,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -2933,13 +2933,13 @@
       <c r="G2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,13 +2948,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="48" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3010,12 +3010,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3024,18 +3024,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3121,12 +3121,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,11 +3135,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -3225,12 +3225,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,23 +3239,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -3356,12 +3356,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,12 +3370,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3431,12 +3431,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3445,20 +3445,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3505,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="65.45" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -3544,12 +3544,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3558,10 +3558,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -3647,12 +3647,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3661,20 +3661,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="21.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -3775,12 +3775,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3789,8 +3789,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -3824,13 +3824,13 @@
       <c r="E2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,12 +3839,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="45.6" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -3900,12 +3900,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3914,10 +3914,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>175</v>
       </c>
@@ -3973,13 +3973,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3988,20 +3988,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4048,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4087,12 +4087,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,10 +4101,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -4190,12 +4190,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4204,21 +4204,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -4319,12 +4319,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,12 +4333,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="51.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="51.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="37.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -4394,12 +4394,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,18 +4408,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -4505,12 +4505,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,10 +4519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4569,7 +4569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -4608,12 +4608,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,21 +4622,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -4737,12 +4737,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4751,13 +4751,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="48.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4789,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -4813,12 +4813,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4827,18 +4827,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
@@ -4924,12 +4924,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,13 +4938,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5030,12 +5030,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5044,18 +5044,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>91</v>
       </c>
@@ -5142,15 +5142,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5159,21 +5159,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -5274,12 +5274,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5288,12 +5288,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5325,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.15" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -5349,12 +5349,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5363,18 +5363,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -5460,12 +5460,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5474,10 +5474,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5524,7 +5524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5563,12 +5563,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5577,21 +5577,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -5692,12 +5692,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5706,12 +5706,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="47.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="1" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5743,7 +5743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="39" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -5767,12 +5767,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5781,18 +5781,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="40.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -5878,12 +5878,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5892,14 +5892,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -5985,12 +5985,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5999,20 +5999,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="41.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="1" max="1" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>171</v>
       </c>
@@ -6113,12 +6113,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6127,13 +6127,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="45.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.9" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>175</v>
       </c>
@@ -6189,12 +6189,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6203,18 +6203,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>170</v>
       </c>
@@ -6300,12 +6300,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6314,17 +6314,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="37.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6371,7 +6371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>171</v>
       </c>
@@ -6411,34 +6411,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" xr:uid="{00000000-0004-0000-3100-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6485,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>171</v>
       </c>
@@ -6525,14 +6525,146 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" xr:uid="{00000000-0004-0000-3200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="16.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" xr:uid="{00000000-0004-0000-3300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6541,51 +6673,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L1" s="18" t="s">
@@ -6597,19 +6732,19 @@
       <c r="N1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>171</v>
+    <row r="2" spans="1:17" s="17" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>175</v>
@@ -6620,20 +6755,20 @@
       <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>100</v>
+      <c r="E2" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>27</v>
@@ -6642,141 +6777,6 @@
         <v>8</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000006qFmK" r:id="rId1" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize=